--- a/Class_VI/Result.xlsx
+++ b/Class_VI/Result.xlsx
@@ -2000,7 +2000,7 @@
         <v>158</v>
       </c>
       <c r="DS3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DT3" t="s">
         <v>158</v>
@@ -2371,13 +2371,13 @@
         <v>157</v>
       </c>
       <c r="DM4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DN4" t="s">
         <v>158</v>
       </c>
       <c r="DO4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DP4" t="s">
         <v>158</v>
@@ -3146,10 +3146,10 @@
         <v>157</v>
       </c>
       <c r="DL6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DM6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DN6" t="s">
         <v>157</v>
@@ -3158,7 +3158,7 @@
         <v>158</v>
       </c>
       <c r="DP6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DQ6" t="s">
         <v>157</v>
@@ -3170,7 +3170,7 @@
         <v>157</v>
       </c>
       <c r="DT6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DU6">
         <v>316.2</v>
@@ -3924,7 +3924,7 @@
         <v>158</v>
       </c>
       <c r="DL8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DM8" t="s">
         <v>158</v>
@@ -3939,13 +3939,13 @@
         <v>158</v>
       </c>
       <c r="DQ8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DR8" t="s">
         <v>158</v>
       </c>
       <c r="DS8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DT8" t="s">
         <v>158</v>
@@ -4310,10 +4310,10 @@
         <v>100</v>
       </c>
       <c r="DK9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DL9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DM9" t="s">
         <v>157</v>
@@ -4322,13 +4322,13 @@
         <v>158</v>
       </c>
       <c r="DO9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DP9" t="s">
         <v>158</v>
       </c>
       <c r="DQ9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DR9" t="s">
         <v>158</v>
@@ -4699,7 +4699,7 @@
         <v>100</v>
       </c>
       <c r="DK10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DL10" t="s">
         <v>157</v>
@@ -4708,7 +4708,7 @@
         <v>157</v>
       </c>
       <c r="DN10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DO10" t="s">
         <v>158</v>
@@ -4720,13 +4720,13 @@
         <v>157</v>
       </c>
       <c r="DR10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DS10" t="s">
         <v>158</v>
       </c>
       <c r="DT10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DU10">
         <v>370.0000000000001</v>
@@ -5091,10 +5091,10 @@
         <v>158</v>
       </c>
       <c r="DL11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DM11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DN11" t="s">
         <v>158</v>
@@ -5106,7 +5106,7 @@
         <v>158</v>
       </c>
       <c r="DQ11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DR11" t="s">
         <v>158</v>
@@ -5477,7 +5477,7 @@
         <v>100</v>
       </c>
       <c r="DK12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DL12" t="s">
         <v>157</v>
@@ -5486,7 +5486,7 @@
         <v>157</v>
       </c>
       <c r="DN12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DO12" t="s">
         <v>158</v>
@@ -5498,7 +5498,7 @@
         <v>157</v>
       </c>
       <c r="DR12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DS12" t="s">
         <v>157</v>
@@ -5866,10 +5866,10 @@
         <v>100</v>
       </c>
       <c r="DK13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DL13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DM13" t="s">
         <v>157</v>
@@ -5887,13 +5887,13 @@
         <v>157</v>
       </c>
       <c r="DR13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DS13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DT13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DU13">
         <v>393</v>
@@ -6255,7 +6255,7 @@
         <v>100</v>
       </c>
       <c r="DK14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DL14" t="s">
         <v>157</v>
@@ -6270,7 +6270,7 @@
         <v>158</v>
       </c>
       <c r="DP14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DQ14" t="s">
         <v>157</v>
@@ -6282,7 +6282,7 @@
         <v>157</v>
       </c>
       <c r="DT14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DU14">
         <v>284</v>
@@ -6656,7 +6656,7 @@
         <v>157</v>
       </c>
       <c r="DO15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DP15" t="s">
         <v>157</v>
@@ -7425,7 +7425,7 @@
         <v>157</v>
       </c>
       <c r="DL17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DM17" t="s">
         <v>157</v>
@@ -7434,13 +7434,13 @@
         <v>157</v>
       </c>
       <c r="DO17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DP17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DQ17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DR17" t="s">
         <v>157</v>
@@ -7811,16 +7811,16 @@
         <v>100</v>
       </c>
       <c r="DK18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DL18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DM18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DN18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DO18" t="s">
         <v>158</v>
@@ -7832,7 +7832,7 @@
         <v>157</v>
       </c>
       <c r="DR18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DS18" t="s">
         <v>157</v>
@@ -8589,7 +8589,7 @@
         <v>100</v>
       </c>
       <c r="DK20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DL20" t="s">
         <v>157</v>
@@ -8616,7 +8616,7 @@
         <v>157</v>
       </c>
       <c r="DT20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DU20">
         <v>277</v>
@@ -8978,7 +8978,7 @@
         <v>100</v>
       </c>
       <c r="DK21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DL21" t="s">
         <v>157</v>
@@ -8993,16 +8993,16 @@
         <v>158</v>
       </c>
       <c r="DP21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DQ21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DR21" t="s">
         <v>157</v>
       </c>
       <c r="DS21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DT21" t="s">
         <v>157</v>
@@ -9388,7 +9388,7 @@
         <v>157</v>
       </c>
       <c r="DR22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DS22" t="s">
         <v>157</v>
@@ -9771,7 +9771,7 @@
         <v>158</v>
       </c>
       <c r="DP23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DQ23" t="s">
         <v>157</v>
@@ -10148,13 +10148,13 @@
         <v>158</v>
       </c>
       <c r="DL24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DM24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DN24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DO24" t="s">
         <v>158</v>
@@ -10534,7 +10534,7 @@
         <v>100</v>
       </c>
       <c r="DK25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DL25" t="s">
         <v>158</v>
@@ -10555,13 +10555,13 @@
         <v>157</v>
       </c>
       <c r="DR25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DS25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DT25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DU25">
         <v>409.8000000000001</v>
@@ -10941,16 +10941,16 @@
         <v>158</v>
       </c>
       <c r="DQ26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DR26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DS26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DT26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DU26">
         <v>421.8</v>
